--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2146504.302263003</v>
+        <v>-2149174.297817964</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9823063.766377145</v>
+        <v>9823063.766377151</v>
       </c>
     </row>
     <row r="8">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>369.0685238739791</v>
       </c>
       <c r="C11" t="n">
-        <v>351.6075739815063</v>
+        <v>351.6075739815061</v>
       </c>
       <c r="D11" t="n">
-        <v>341.0177238311817</v>
+        <v>341.0177238311815</v>
       </c>
       <c r="E11" t="n">
-        <v>368.2650522827605</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>393.2107279522102</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.2564078639522</v>
+        <v>397.256407863952</v>
       </c>
       <c r="H11" t="n">
-        <v>123.4019279398913</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>27.91161198342451</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>95.52244399867458</v>
+        <v>95.52244399867439</v>
       </c>
       <c r="T11" t="n">
-        <v>190.2526523501189</v>
+        <v>190.2526523501187</v>
       </c>
       <c r="U11" t="n">
-        <v>237.3298541694007</v>
+        <v>237.3298541694005</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>314.0869406806335</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>335.5756509279116</v>
       </c>
       <c r="X11" t="n">
-        <v>356.0657828889678</v>
+        <v>356.0657828889676</v>
       </c>
       <c r="Y11" t="n">
-        <v>372.5726208665523</v>
+        <v>210.8076015754684</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>153.5815033091264</v>
       </c>
       <c r="D13" t="n">
-        <v>134.9501552287111</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>132.7686448570679</v>
+        <v>132.7686448570677</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>131.7557302334298</v>
       </c>
       <c r="G13" t="n">
-        <v>152.360490469527</v>
+        <v>29.34285445049634</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0896971248193</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>75.26683488054607</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>176.1037075419406</v>
+        <v>176.1037075419405</v>
       </c>
       <c r="T13" t="n">
-        <v>205.8836314866679</v>
+        <v>205.8836314866678</v>
       </c>
       <c r="U13" t="n">
-        <v>272.5465204161116</v>
+        <v>272.5465204161114</v>
       </c>
       <c r="V13" t="n">
-        <v>238.4723255343267</v>
+        <v>238.4723255343266</v>
       </c>
       <c r="W13" t="n">
-        <v>272.8576805470897</v>
+        <v>272.8576805470896</v>
       </c>
       <c r="X13" t="n">
-        <v>212.0443375995359</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>76.0673025021423</v>
+        <v>204.9193355625933</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>369.0685238739793</v>
+        <v>309.9503986972996</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>351.6075739815061</v>
       </c>
       <c r="D14" t="n">
-        <v>341.0177238311817</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>368.2650522827605</v>
+        <v>368.2650522827603</v>
       </c>
       <c r="F14" t="n">
-        <v>393.2107279522102</v>
+        <v>393.21072795221</v>
       </c>
       <c r="G14" t="n">
-        <v>231.3402972687664</v>
+        <v>397.256407863952</v>
       </c>
       <c r="H14" t="n">
-        <v>280.9424465978192</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>27.9116119834247</v>
+        <v>27.91161198342451</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.52244399867458</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>190.2526523501189</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>237.3298541694007</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>314.0869406806335</v>
       </c>
       <c r="W14" t="n">
-        <v>335.5756509279117</v>
+        <v>335.5756509279116</v>
       </c>
       <c r="X14" t="n">
-        <v>356.0657828889678</v>
+        <v>356.0657828889676</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>372.5726208665521</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.166662392436</v>
+        <v>166.1666623924359</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>134.9501552287111</v>
+        <v>134.9501552287109</v>
       </c>
       <c r="E16" t="n">
-        <v>108.8751678056505</v>
+        <v>132.7686448570677</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>131.7557302334298</v>
       </c>
       <c r="G16" t="n">
-        <v>152.360490469527</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0896971248195</v>
+        <v>131.0896971248193</v>
       </c>
       <c r="I16" t="n">
-        <v>82.68710262033684</v>
+        <v>11.46004082052335</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>75.26683488054607</v>
+        <v>75.26683488054589</v>
       </c>
       <c r="S16" t="n">
-        <v>176.1037075419406</v>
+        <v>176.1037075419405</v>
       </c>
       <c r="T16" t="n">
-        <v>205.8836314866679</v>
+        <v>205.8836314866678</v>
       </c>
       <c r="U16" t="n">
-        <v>272.5465204161116</v>
+        <v>272.5465204161114</v>
       </c>
       <c r="V16" t="n">
-        <v>238.4723255343267</v>
+        <v>238.4723255343266</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.8576805470896</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.9193355625935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>322.0933872553867</v>
+        <v>322.0933872553866</v>
       </c>
       <c r="C17" t="n">
-        <v>304.6324373629137</v>
+        <v>304.6324373629136</v>
       </c>
       <c r="D17" t="n">
-        <v>294.0425872125891</v>
+        <v>294.042587212589</v>
       </c>
       <c r="E17" t="n">
-        <v>321.2899156641679</v>
+        <v>321.2899156641678</v>
       </c>
       <c r="F17" t="n">
-        <v>346.2355913336176</v>
+        <v>346.2355913336174</v>
       </c>
       <c r="G17" t="n">
-        <v>350.2812712453596</v>
+        <v>350.2812712453594</v>
       </c>
       <c r="H17" t="n">
-        <v>233.9673099792266</v>
+        <v>233.9673099792265</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>48.54730738008197</v>
+        <v>48.54730738008185</v>
       </c>
       <c r="T17" t="n">
-        <v>143.2775157315263</v>
+        <v>143.2775157315262</v>
       </c>
       <c r="U17" t="n">
-        <v>190.3547175508081</v>
+        <v>190.354717550808</v>
       </c>
       <c r="V17" t="n">
-        <v>228.300495627794</v>
+        <v>267.111804062041</v>
       </c>
       <c r="W17" t="n">
-        <v>288.6005143093192</v>
+        <v>249.7892058750652</v>
       </c>
       <c r="X17" t="n">
-        <v>309.0906462703752</v>
+        <v>309.090646270375</v>
       </c>
       <c r="Y17" t="n">
-        <v>325.5974842479598</v>
+        <v>325.5974842479596</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.1915257738435</v>
+        <v>119.1915257738433</v>
       </c>
       <c r="C19" t="n">
-        <v>106.606366690534</v>
+        <v>106.6063666905339</v>
       </c>
       <c r="D19" t="n">
-        <v>87.97501861011851</v>
+        <v>87.97501861011838</v>
       </c>
       <c r="E19" t="n">
-        <v>85.79350823847533</v>
+        <v>85.7935082384752</v>
       </c>
       <c r="F19" t="n">
-        <v>84.7805936148374</v>
+        <v>84.78059361483727</v>
       </c>
       <c r="G19" t="n">
-        <v>105.3853538509344</v>
+        <v>105.3853538509343</v>
       </c>
       <c r="H19" t="n">
-        <v>84.11456050622694</v>
+        <v>84.11456050622681</v>
       </c>
       <c r="I19" t="n">
-        <v>35.71196600174425</v>
+        <v>35.71196600174412</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.29169826195348</v>
+        <v>28.29169826195336</v>
       </c>
       <c r="S19" t="n">
-        <v>129.1285709233481</v>
+        <v>129.1285709233479</v>
       </c>
       <c r="T19" t="n">
-        <v>158.9084948680754</v>
+        <v>158.9084948680752</v>
       </c>
       <c r="U19" t="n">
-        <v>225.571383797519</v>
+        <v>225.5713837975189</v>
       </c>
       <c r="V19" t="n">
-        <v>191.4971889157342</v>
+        <v>191.497188915734</v>
       </c>
       <c r="W19" t="n">
-        <v>225.8825439284972</v>
+        <v>225.882543928497</v>
       </c>
       <c r="X19" t="n">
-        <v>165.0692009809433</v>
+        <v>165.0692009809432</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.944198944001</v>
+        <v>157.9441989440008</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>322.0933872553867</v>
+        <v>322.0933872553866</v>
       </c>
       <c r="C20" t="n">
-        <v>304.6324373629137</v>
+        <v>304.6324373629136</v>
       </c>
       <c r="D20" t="n">
-        <v>294.0425872125891</v>
+        <v>294.042587212589</v>
       </c>
       <c r="E20" t="n">
-        <v>321.2899156641679</v>
+        <v>321.2899156641678</v>
       </c>
       <c r="F20" t="n">
-        <v>346.2355913336176</v>
+        <v>346.2355913336174</v>
       </c>
       <c r="G20" t="n">
-        <v>350.2812712453596</v>
+        <v>311.4699628111053</v>
       </c>
       <c r="H20" t="n">
-        <v>233.9673099792267</v>
+        <v>233.9673099792265</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.735998945833424</v>
+        <v>48.54730738008186</v>
       </c>
       <c r="T20" t="n">
-        <v>143.2775157315263</v>
+        <v>143.2775157315262</v>
       </c>
       <c r="U20" t="n">
-        <v>190.3547175508081</v>
+        <v>190.354717550808</v>
       </c>
       <c r="V20" t="n">
-        <v>267.1118040620411</v>
+        <v>267.111804062041</v>
       </c>
       <c r="W20" t="n">
-        <v>288.6005143093192</v>
+        <v>288.600514309319</v>
       </c>
       <c r="X20" t="n">
-        <v>309.0906462703752</v>
+        <v>309.090646270375</v>
       </c>
       <c r="Y20" t="n">
-        <v>325.5974842479598</v>
+        <v>325.5974842479596</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.1915257738435</v>
+        <v>119.1915257738433</v>
       </c>
       <c r="C22" t="n">
-        <v>106.606366690534</v>
+        <v>106.6063666905339</v>
       </c>
       <c r="D22" t="n">
-        <v>87.97501861011851</v>
+        <v>87.97501861011838</v>
       </c>
       <c r="E22" t="n">
-        <v>85.79350823847533</v>
+        <v>85.7935082384752</v>
       </c>
       <c r="F22" t="n">
-        <v>84.7805936148374</v>
+        <v>84.78059361483727</v>
       </c>
       <c r="G22" t="n">
-        <v>105.3853538509344</v>
+        <v>105.3853538509343</v>
       </c>
       <c r="H22" t="n">
-        <v>84.11456050622694</v>
+        <v>84.11456050622681</v>
       </c>
       <c r="I22" t="n">
-        <v>35.71196600174427</v>
+        <v>35.71196600174412</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.2916982619535</v>
+        <v>28.29169826195336</v>
       </c>
       <c r="S22" t="n">
-        <v>129.1285709233481</v>
+        <v>129.1285709233479</v>
       </c>
       <c r="T22" t="n">
-        <v>158.9084948680754</v>
+        <v>158.9084948680752</v>
       </c>
       <c r="U22" t="n">
-        <v>225.571383797519</v>
+        <v>225.5713837975189</v>
       </c>
       <c r="V22" t="n">
-        <v>191.4971889157342</v>
+        <v>191.497188915734</v>
       </c>
       <c r="W22" t="n">
-        <v>225.8825439284972</v>
+        <v>225.882543928497</v>
       </c>
       <c r="X22" t="n">
-        <v>165.0692009809433</v>
+        <v>165.0692009809432</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.944198944001</v>
+        <v>157.9441989440008</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>322.0933872553867</v>
+        <v>322.0933872553866</v>
       </c>
       <c r="C23" t="n">
-        <v>304.6324373629137</v>
+        <v>304.6324373629136</v>
       </c>
       <c r="D23" t="n">
-        <v>294.0425872125891</v>
+        <v>294.042587212589</v>
       </c>
       <c r="E23" t="n">
-        <v>321.2899156641679</v>
+        <v>321.2899156641678</v>
       </c>
       <c r="F23" t="n">
-        <v>346.2355913336176</v>
+        <v>346.2355913336174</v>
       </c>
       <c r="G23" t="n">
-        <v>350.2812712453596</v>
+        <v>350.2812712453594</v>
       </c>
       <c r="H23" t="n">
-        <v>233.9673099792266</v>
+        <v>233.9673099792265</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>48.54730738008199</v>
+        <v>48.54730738008186</v>
       </c>
       <c r="T23" t="n">
-        <v>143.2775157315263</v>
+        <v>143.2775157315262</v>
       </c>
       <c r="U23" t="n">
-        <v>190.3547175508081</v>
+        <v>190.354717550808</v>
       </c>
       <c r="V23" t="n">
-        <v>267.1118040620411</v>
+        <v>267.111804062041</v>
       </c>
       <c r="W23" t="n">
-        <v>288.6005143093192</v>
+        <v>288.600514309319</v>
       </c>
       <c r="X23" t="n">
-        <v>309.0906462703752</v>
+        <v>309.090646270375</v>
       </c>
       <c r="Y23" t="n">
-        <v>325.5974842479598</v>
+        <v>325.5974842479596</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>119.1915257738435</v>
+        <v>119.1915257738433</v>
       </c>
       <c r="C25" t="n">
-        <v>106.606366690534</v>
+        <v>106.6063666905339</v>
       </c>
       <c r="D25" t="n">
-        <v>87.97501861011851</v>
+        <v>87.97501861011838</v>
       </c>
       <c r="E25" t="n">
-        <v>85.79350823847533</v>
+        <v>85.7935082384752</v>
       </c>
       <c r="F25" t="n">
-        <v>84.7805936148374</v>
+        <v>84.78059361483727</v>
       </c>
       <c r="G25" t="n">
-        <v>105.3853538509344</v>
+        <v>105.3853538509343</v>
       </c>
       <c r="H25" t="n">
-        <v>84.11456050622694</v>
+        <v>84.11456050622681</v>
       </c>
       <c r="I25" t="n">
-        <v>35.71196600174427</v>
+        <v>35.71196600174412</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.2916982619535</v>
+        <v>28.29169826195336</v>
       </c>
       <c r="S25" t="n">
-        <v>129.1285709233481</v>
+        <v>129.1285709233479</v>
       </c>
       <c r="T25" t="n">
-        <v>158.9084948680754</v>
+        <v>158.9084948680752</v>
       </c>
       <c r="U25" t="n">
-        <v>225.571383797519</v>
+        <v>225.5713837975189</v>
       </c>
       <c r="V25" t="n">
-        <v>191.4971889157342</v>
+        <v>191.497188915734</v>
       </c>
       <c r="W25" t="n">
-        <v>225.8825439284972</v>
+        <v>225.882543928497</v>
       </c>
       <c r="X25" t="n">
-        <v>165.0692009809433</v>
+        <v>165.0692009809432</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.944198944001</v>
+        <v>157.9441989440008</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3269,16 +3269,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
         <v>247.6326277687279</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2061.218595070065</v>
+        <v>1195.596275684774</v>
       </c>
       <c r="C11" t="n">
-        <v>1706.059429432179</v>
+        <v>840.4371100468886</v>
       </c>
       <c r="D11" t="n">
-        <v>1361.597082127955</v>
+        <v>495.9747627426649</v>
       </c>
       <c r="E11" t="n">
-        <v>989.6121808322375</v>
+        <v>495.9747627426649</v>
       </c>
       <c r="F11" t="n">
-        <v>592.4296273451565</v>
+        <v>495.9747627426649</v>
       </c>
       <c r="G11" t="n">
-        <v>191.1605284926797</v>
+        <v>94.70566389018799</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>94.70566389018799</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3229.118504438791</v>
+        <v>3229.118504438793</v>
       </c>
       <c r="T11" t="n">
-        <v>3036.94410812554</v>
+        <v>3036.944108125542</v>
       </c>
       <c r="U11" t="n">
-        <v>2797.216982701903</v>
+        <v>2797.216982701905</v>
       </c>
       <c r="V11" t="n">
-        <v>2797.216982701903</v>
+        <v>2479.957446660861</v>
       </c>
       <c r="W11" t="n">
-        <v>2797.216982701903</v>
+        <v>2140.992142693274</v>
       </c>
       <c r="X11" t="n">
-        <v>2437.55457574335</v>
+        <v>1781.329735734721</v>
       </c>
       <c r="Y11" t="n">
-        <v>2061.218595070065</v>
+        <v>1568.392764446369</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>490.8346321446139</v>
+        <v>650.8943689321225</v>
       </c>
       <c r="C13" t="n">
-        <v>490.8346321446139</v>
+        <v>495.7615373067422</v>
       </c>
       <c r="D13" t="n">
-        <v>354.5213440348045</v>
+        <v>495.7615373067422</v>
       </c>
       <c r="E13" t="n">
-        <v>220.4116017549379</v>
+        <v>361.6517950268758</v>
       </c>
       <c r="F13" t="n">
-        <v>220.4116017549379</v>
+        <v>228.5651988314922</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218339</v>
+        <v>198.9259519117989</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>125.1634134907252</v>
+        <v>125.1634134907254</v>
       </c>
       <c r="K13" t="n">
-        <v>342.6792610512076</v>
+        <v>342.6792610512082</v>
       </c>
       <c r="L13" t="n">
-        <v>672.7677241113099</v>
+        <v>672.7677241113107</v>
       </c>
       <c r="M13" t="n">
-        <v>1030.453434322465</v>
+        <v>1030.453434322466</v>
       </c>
       <c r="N13" t="n">
-        <v>1385.390475639936</v>
+        <v>1385.390475639937</v>
       </c>
       <c r="O13" t="n">
-        <v>1698.248739171956</v>
+        <v>1698.248739171957</v>
       </c>
       <c r="P13" t="n">
-        <v>1944.384904217221</v>
+        <v>1944.384904217223</v>
       </c>
       <c r="Q13" t="n">
-        <v>2035.523864981342</v>
+        <v>2035.523864981344</v>
       </c>
       <c r="R13" t="n">
-        <v>1959.496759041397</v>
+        <v>2035.523864981344</v>
       </c>
       <c r="S13" t="n">
-        <v>1781.61422617075</v>
+        <v>1857.641332110697</v>
       </c>
       <c r="T13" t="n">
-        <v>1573.650962042802</v>
+        <v>1649.67806798275</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.351446470972</v>
+        <v>1374.37855241092</v>
       </c>
       <c r="V13" t="n">
-        <v>1057.470309567612</v>
+        <v>1133.49741550756</v>
       </c>
       <c r="W13" t="n">
-        <v>781.8564908331778</v>
+        <v>857.8835967731259</v>
       </c>
       <c r="X13" t="n">
-        <v>567.6702912376869</v>
+        <v>857.8835967731259</v>
       </c>
       <c r="Y13" t="n">
-        <v>490.8346321446139</v>
+        <v>650.8943689321225</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1725.792783014167</v>
+        <v>1620.301383163348</v>
       </c>
       <c r="C14" t="n">
-        <v>1725.792783014167</v>
+        <v>1265.142217525463</v>
       </c>
       <c r="D14" t="n">
-        <v>1381.330435709943</v>
+        <v>1265.142217525463</v>
       </c>
       <c r="E14" t="n">
-        <v>1009.345534414225</v>
+        <v>893.1573162297457</v>
       </c>
       <c r="F14" t="n">
-        <v>612.1629809271441</v>
+        <v>495.9747627426648</v>
       </c>
       <c r="G14" t="n">
-        <v>378.4859129788952</v>
+        <v>94.70566389018798</v>
       </c>
       <c r="H14" t="n">
-        <v>94.70566389018813</v>
+        <v>94.70566389018798</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3229.118504438791</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3036.94410812554</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2797.216982701903</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2797.216982701903</v>
+        <v>3008.346285568127</v>
       </c>
       <c r="W14" t="n">
-        <v>2458.251678734315</v>
+        <v>2669.38098160054</v>
       </c>
       <c r="X14" t="n">
-        <v>2098.589271775762</v>
+        <v>2309.718574641987</v>
       </c>
       <c r="Y14" t="n">
-        <v>2098.589271775762</v>
+        <v>1933.382593968701</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,31 +5373,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>682.6359681988955</v>
+        <v>614.0113773054675</v>
       </c>
       <c r="C16" t="n">
-        <v>682.6359681988955</v>
+        <v>614.0113773054675</v>
       </c>
       <c r="D16" t="n">
-        <v>546.3226800890864</v>
+        <v>477.6980891956584</v>
       </c>
       <c r="E16" t="n">
-        <v>436.3477631136818</v>
+        <v>343.588346915792</v>
       </c>
       <c r="F16" t="n">
-        <v>436.3477631136818</v>
+        <v>210.5017507204084</v>
       </c>
       <c r="G16" t="n">
-        <v>282.4482777909272</v>
+        <v>210.5017507204084</v>
       </c>
       <c r="H16" t="n">
-        <v>150.0344423113115</v>
+        <v>78.08791524079288</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>125.1634134907252</v>
+        <v>125.1634134907254</v>
       </c>
       <c r="K16" t="n">
-        <v>342.6792610512078</v>
+        <v>342.6792610512082</v>
       </c>
       <c r="L16" t="n">
-        <v>672.7677241113101</v>
+        <v>672.7677241113107</v>
       </c>
       <c r="M16" t="n">
-        <v>1030.453434322465</v>
+        <v>1030.453434322466</v>
       </c>
       <c r="N16" t="n">
-        <v>1385.390475639936</v>
+        <v>1385.390475639937</v>
       </c>
       <c r="O16" t="n">
-        <v>1698.248739171956</v>
+        <v>1698.248739171957</v>
       </c>
       <c r="P16" t="n">
-        <v>1944.384904217221</v>
+        <v>1944.384904217223</v>
       </c>
       <c r="Q16" t="n">
-        <v>2035.523864981342</v>
+        <v>2035.523864981344</v>
       </c>
       <c r="R16" t="n">
-        <v>1959.496759041397</v>
+        <v>1959.496759041398</v>
       </c>
       <c r="S16" t="n">
-        <v>1781.61422617075</v>
+        <v>1781.614226170752</v>
       </c>
       <c r="T16" t="n">
-        <v>1573.650962042802</v>
+        <v>1573.650962042804</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.351446470972</v>
+        <v>1298.351446470975</v>
       </c>
       <c r="V16" t="n">
-        <v>1057.470309567612</v>
+        <v>1057.470309567615</v>
       </c>
       <c r="W16" t="n">
-        <v>1057.470309567612</v>
+        <v>781.8564908331805</v>
       </c>
       <c r="X16" t="n">
-        <v>1057.470309567612</v>
+        <v>781.8564908331805</v>
       </c>
       <c r="Y16" t="n">
-        <v>850.4810817266086</v>
+        <v>781.8564908331805</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1945.543552015399</v>
+        <v>1945.543552015397</v>
       </c>
       <c r="C17" t="n">
-        <v>1637.834019325587</v>
+        <v>1637.834019325585</v>
       </c>
       <c r="D17" t="n">
-        <v>1340.821304969436</v>
+        <v>1340.821304969435</v>
       </c>
       <c r="E17" t="n">
-        <v>1016.286036621792</v>
+        <v>1016.286036621791</v>
       </c>
       <c r="F17" t="n">
-        <v>666.5531160827845</v>
+        <v>666.5531160827834</v>
       </c>
       <c r="G17" t="n">
-        <v>312.7336501783803</v>
+        <v>312.7336501783801</v>
       </c>
       <c r="H17" t="n">
-        <v>76.40303403774739</v>
+        <v>76.40303403774722</v>
       </c>
       <c r="I17" t="n">
-        <v>76.40303403774739</v>
+        <v>76.40303403774722</v>
       </c>
       <c r="J17" t="n">
-        <v>265.2821649967728</v>
+        <v>432.6878140171257</v>
       </c>
       <c r="K17" t="n">
-        <v>599.1015386866193</v>
+        <v>1083.756501359245</v>
       </c>
       <c r="L17" t="n">
-        <v>1050.135751935028</v>
+        <v>1534.790714607654</v>
       </c>
       <c r="M17" t="n">
-        <v>1583.667656606953</v>
+        <v>2068.322619279578</v>
       </c>
       <c r="N17" t="n">
-        <v>2130.446473665735</v>
+        <v>2615.101436338361</v>
       </c>
       <c r="O17" t="n">
-        <v>2799.493186127939</v>
+        <v>3118.073907217698</v>
       </c>
       <c r="P17" t="n">
-        <v>3512.848273574885</v>
+        <v>3512.848273574876</v>
       </c>
       <c r="Q17" t="n">
-        <v>3761.134635330567</v>
+        <v>3761.134635330558</v>
       </c>
       <c r="R17" t="n">
-        <v>3820.15170188737</v>
+        <v>3820.151701887361</v>
       </c>
       <c r="S17" t="n">
-        <v>3771.114017665064</v>
+        <v>3771.114017665056</v>
       </c>
       <c r="T17" t="n">
-        <v>3626.389254299886</v>
+        <v>3626.389254299878</v>
       </c>
       <c r="U17" t="n">
-        <v>3434.111761824322</v>
+        <v>3434.111761824314</v>
       </c>
       <c r="V17" t="n">
-        <v>3203.505200584127</v>
+        <v>3164.301858731344</v>
       </c>
       <c r="W17" t="n">
-        <v>2911.989529564613</v>
+        <v>2911.989529564611</v>
       </c>
       <c r="X17" t="n">
-        <v>2599.776755554133</v>
+        <v>2599.776755554131</v>
       </c>
       <c r="Y17" t="n">
-        <v>2270.890407828921</v>
+        <v>2270.890407828919</v>
       </c>
     </row>
     <row r="18">
@@ -5583,22 +5583,22 @@
         <v>322.275320165724</v>
       </c>
       <c r="G18" t="n">
-        <v>185.9122199983419</v>
+        <v>185.9122199983427</v>
       </c>
       <c r="H18" t="n">
-        <v>95.41032563620944</v>
+        <v>95.41032563620963</v>
       </c>
       <c r="I18" t="n">
-        <v>76.40303403774739</v>
+        <v>76.40303403774722</v>
       </c>
       <c r="J18" t="n">
-        <v>170.080303528365</v>
+        <v>170.0803035283648</v>
       </c>
       <c r="K18" t="n">
-        <v>408.3445025087121</v>
+        <v>408.3445025087122</v>
       </c>
       <c r="L18" t="n">
-        <v>775.0426628213776</v>
+        <v>775.0426628213775</v>
       </c>
       <c r="M18" t="n">
         <v>1222.318988043693</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>672.7337082931724</v>
+        <v>672.7337082931714</v>
       </c>
       <c r="C19" t="n">
-        <v>565.0505096158654</v>
+        <v>565.0505096158645</v>
       </c>
       <c r="D19" t="n">
-        <v>476.1868544541295</v>
+        <v>476.1868544541287</v>
       </c>
       <c r="E19" t="n">
-        <v>389.5267451223363</v>
+        <v>389.5267451223356</v>
       </c>
       <c r="F19" t="n">
-        <v>303.8897818750257</v>
+        <v>303.8897818750252</v>
       </c>
       <c r="G19" t="n">
-        <v>197.4399295003446</v>
+        <v>197.4399295003441</v>
       </c>
       <c r="H19" t="n">
-        <v>112.4757269688022</v>
+        <v>112.4757269688019</v>
       </c>
       <c r="I19" t="n">
-        <v>76.40303403774739</v>
+        <v>76.40303403774722</v>
       </c>
       <c r="J19" t="n">
-        <v>152.6470279354853</v>
+        <v>152.6470279354825</v>
       </c>
       <c r="K19" t="n">
-        <v>416.6682607483745</v>
+        <v>416.6682607483719</v>
       </c>
       <c r="L19" t="n">
-        <v>733.2280591968706</v>
+        <v>793.2621090608811</v>
       </c>
       <c r="M19" t="n">
-        <v>1137.419154660432</v>
+        <v>1137.41915466043</v>
       </c>
       <c r="N19" t="n">
-        <v>1478.827531366297</v>
+        <v>1478.827531366295</v>
       </c>
       <c r="O19" t="n">
-        <v>1778.157130286711</v>
+        <v>1778.157130286708</v>
       </c>
       <c r="P19" t="n">
-        <v>2010.76463072037</v>
+        <v>2010.764630720368</v>
       </c>
       <c r="Q19" t="n">
-        <v>2088.374926872885</v>
+        <v>2088.374926872882</v>
       </c>
       <c r="R19" t="n">
-        <v>2059.797453881013</v>
+        <v>2059.79745388101</v>
       </c>
       <c r="S19" t="n">
-        <v>1929.364553958439</v>
+        <v>1929.364553958437</v>
       </c>
       <c r="T19" t="n">
-        <v>1768.850922778565</v>
+        <v>1768.850922778563</v>
       </c>
       <c r="U19" t="n">
-        <v>1541.001040154808</v>
+        <v>1541.001040154806</v>
       </c>
       <c r="V19" t="n">
-        <v>1347.569536199521</v>
+        <v>1347.569536199519</v>
       </c>
       <c r="W19" t="n">
-        <v>1119.40535041316</v>
+        <v>1119.405350413159</v>
       </c>
       <c r="X19" t="n">
-        <v>952.6687837657425</v>
+        <v>952.6687837657413</v>
       </c>
       <c r="Y19" t="n">
-        <v>793.1291888728123</v>
+        <v>793.1291888728111</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1945.5435520154</v>
+        <v>1906.340210162615</v>
       </c>
       <c r="C20" t="n">
-        <v>1637.834019325588</v>
+        <v>1598.630677472803</v>
       </c>
       <c r="D20" t="n">
-        <v>1340.821304969437</v>
+        <v>1301.617963116653</v>
       </c>
       <c r="E20" t="n">
-        <v>1016.286036621793</v>
+        <v>977.0826947690089</v>
       </c>
       <c r="F20" t="n">
-        <v>666.5531160827854</v>
+        <v>627.3497742300015</v>
       </c>
       <c r="G20" t="n">
-        <v>312.7336501783804</v>
+        <v>312.7336501783801</v>
       </c>
       <c r="H20" t="n">
-        <v>76.40303403774739</v>
+        <v>76.40303403774722</v>
       </c>
       <c r="I20" t="n">
-        <v>76.40303403774739</v>
+        <v>76.40303403774722</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2971509053882</v>
+        <v>432.6878140171257</v>
       </c>
       <c r="K20" t="n">
-        <v>700.1165245952345</v>
+        <v>766.5071877069722</v>
       </c>
       <c r="L20" t="n">
-        <v>1151.150737843643</v>
+        <v>1217.541400955381</v>
       </c>
       <c r="M20" t="n">
-        <v>1684.682642515568</v>
+        <v>1751.073305627306</v>
       </c>
       <c r="N20" t="n">
-        <v>2231.46145957435</v>
+        <v>2297.852122686088</v>
       </c>
       <c r="O20" t="n">
-        <v>2734.433930453687</v>
+        <v>2800.824593565425</v>
       </c>
       <c r="P20" t="n">
-        <v>3447.789017900632</v>
+        <v>3237.597177147317</v>
       </c>
       <c r="Q20" t="n">
-        <v>3696.075379656314</v>
+        <v>3696.075379656305</v>
       </c>
       <c r="R20" t="n">
-        <v>3820.15170188737</v>
+        <v>3820.151701887361</v>
       </c>
       <c r="S20" t="n">
-        <v>3810.31735951784</v>
+        <v>3771.114017665056</v>
       </c>
       <c r="T20" t="n">
-        <v>3665.592596152662</v>
+        <v>3626.389254299877</v>
       </c>
       <c r="U20" t="n">
-        <v>3473.315103677099</v>
+        <v>3434.111761824313</v>
       </c>
       <c r="V20" t="n">
-        <v>3203.505200584128</v>
+        <v>3164.301858731343</v>
       </c>
       <c r="W20" t="n">
-        <v>2911.989529564614</v>
+        <v>2872.786187711828</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.776755554134</v>
+        <v>2560.573413701349</v>
       </c>
       <c r="Y20" t="n">
-        <v>2270.890407828922</v>
+        <v>2231.687065976137</v>
       </c>
     </row>
     <row r="21">
@@ -5814,22 +5814,22 @@
         <v>628.0473331442943</v>
       </c>
       <c r="E21" t="n">
-        <v>468.8098781388388</v>
+        <v>468.8098781388387</v>
       </c>
       <c r="F21" t="n">
-        <v>322.2753201657238</v>
+        <v>322.2753201657237</v>
       </c>
       <c r="G21" t="n">
-        <v>185.9122199983419</v>
+        <v>185.9122199983417</v>
       </c>
       <c r="H21" t="n">
-        <v>95.41032563620945</v>
+        <v>95.41032563620925</v>
       </c>
       <c r="I21" t="n">
-        <v>76.40303403774739</v>
+        <v>76.40303403774722</v>
       </c>
       <c r="J21" t="n">
-        <v>170.0803035283647</v>
+        <v>170.0803035283645</v>
       </c>
       <c r="K21" t="n">
         <v>408.3445025087117</v>
@@ -5841,7 +5841,7 @@
         <v>1222.318988043693</v>
       </c>
       <c r="N21" t="n">
-        <v>1695.842031598147</v>
+        <v>1695.842031598148</v>
       </c>
       <c r="O21" t="n">
         <v>2106.803311016202</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>672.7337082931724</v>
+        <v>672.7337082931714</v>
       </c>
       <c r="C22" t="n">
-        <v>565.0505096158654</v>
+        <v>565.0505096158645</v>
       </c>
       <c r="D22" t="n">
-        <v>476.1868544541296</v>
+        <v>476.1868544541287</v>
       </c>
       <c r="E22" t="n">
-        <v>389.5267451223363</v>
+        <v>389.5267451223356</v>
       </c>
       <c r="F22" t="n">
-        <v>303.8897818750258</v>
+        <v>303.8897818750252</v>
       </c>
       <c r="G22" t="n">
-        <v>197.4399295003446</v>
+        <v>197.4399295003441</v>
       </c>
       <c r="H22" t="n">
-        <v>112.4757269688022</v>
+        <v>112.4757269688019</v>
       </c>
       <c r="I22" t="n">
-        <v>76.40303403774739</v>
+        <v>76.40303403774722</v>
       </c>
       <c r="J22" t="n">
-        <v>152.6470279354859</v>
+        <v>121.5256664846828</v>
       </c>
       <c r="K22" t="n">
-        <v>356.6342108843622</v>
+        <v>385.5468992975722</v>
       </c>
       <c r="L22" t="n">
-        <v>673.1940093328583</v>
+        <v>702.1066977460682</v>
       </c>
       <c r="M22" t="n">
-        <v>1077.38510479642</v>
+        <v>1077.385104796417</v>
       </c>
       <c r="N22" t="n">
-        <v>1418.793481502285</v>
+        <v>1478.827531366295</v>
       </c>
       <c r="O22" t="n">
-        <v>1778.157130286711</v>
+        <v>1778.157130286708</v>
       </c>
       <c r="P22" t="n">
-        <v>2010.76463072037</v>
+        <v>2010.764630720368</v>
       </c>
       <c r="Q22" t="n">
-        <v>2088.374926872885</v>
+        <v>2088.374926872882</v>
       </c>
       <c r="R22" t="n">
-        <v>2059.797453881013</v>
+        <v>2059.79745388101</v>
       </c>
       <c r="S22" t="n">
-        <v>1929.364553958439</v>
+        <v>1929.364553958437</v>
       </c>
       <c r="T22" t="n">
-        <v>1768.850922778565</v>
+        <v>1768.850922778563</v>
       </c>
       <c r="U22" t="n">
-        <v>1541.001040154808</v>
+        <v>1541.001040154806</v>
       </c>
       <c r="V22" t="n">
-        <v>1347.569536199521</v>
+        <v>1347.569536199519</v>
       </c>
       <c r="W22" t="n">
-        <v>1119.40535041316</v>
+        <v>1119.405350413159</v>
       </c>
       <c r="X22" t="n">
-        <v>952.6687837657425</v>
+        <v>952.6687837657413</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.1291888728123</v>
+        <v>793.1291888728111</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1946.343620216476</v>
+        <v>1946.343620216475</v>
       </c>
       <c r="C23" t="n">
         <v>1638.634087526664</v>
       </c>
       <c r="D23" t="n">
-        <v>1341.621373170514</v>
+        <v>1341.621373170513</v>
       </c>
       <c r="E23" t="n">
         <v>1017.086104822869</v>
@@ -5978,25 +5978,25 @@
         <v>667.3531842838615</v>
       </c>
       <c r="G23" t="n">
-        <v>313.5337183794574</v>
+        <v>313.5337183794572</v>
       </c>
       <c r="H23" t="n">
-        <v>77.20310223882443</v>
+        <v>77.20310223882441</v>
       </c>
       <c r="I23" t="n">
-        <v>77.20310223882443</v>
+        <v>77.20310223882441</v>
       </c>
       <c r="J23" t="n">
         <v>433.4878822182029</v>
       </c>
       <c r="K23" t="n">
-        <v>767.3072559080492</v>
+        <v>767.3072559080495</v>
       </c>
       <c r="L23" t="n">
         <v>1218.341469156458</v>
       </c>
       <c r="M23" t="n">
-        <v>1751.873373828382</v>
+        <v>1751.873373828383</v>
       </c>
       <c r="N23" t="n">
         <v>2298.652190887165</v>
@@ -6005,31 +6005,31 @@
         <v>2801.624661766502</v>
       </c>
       <c r="P23" t="n">
-        <v>3277.600587201178</v>
+        <v>3277.600587201177</v>
       </c>
       <c r="Q23" t="n">
-        <v>3736.078789710166</v>
+        <v>3736.078789710165</v>
       </c>
       <c r="R23" t="n">
-        <v>3860.155111941222</v>
+        <v>3860.155111941221</v>
       </c>
       <c r="S23" t="n">
-        <v>3811.117427718916</v>
+        <v>3811.117427718915</v>
       </c>
       <c r="T23" t="n">
-        <v>3666.392664353738</v>
+        <v>3666.392664353737</v>
       </c>
       <c r="U23" t="n">
-        <v>3474.115171878175</v>
+        <v>3474.115171878174</v>
       </c>
       <c r="V23" t="n">
-        <v>3204.305268785204</v>
+        <v>3204.305268785203</v>
       </c>
       <c r="W23" t="n">
-        <v>2912.78959776569</v>
+        <v>2912.789597765689</v>
       </c>
       <c r="X23" t="n">
-        <v>2600.57682375521</v>
+        <v>2600.576823755209</v>
       </c>
       <c r="Y23" t="n">
         <v>2271.690476029998</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>952.2348402877498</v>
+        <v>952.2348402877495</v>
       </c>
       <c r="C24" t="n">
-        <v>777.7818110066228</v>
+        <v>777.7818110066225</v>
       </c>
       <c r="D24" t="n">
-        <v>628.8474013453715</v>
+        <v>628.8474013453713</v>
       </c>
       <c r="E24" t="n">
-        <v>469.609946339916</v>
+        <v>469.6099463399158</v>
       </c>
       <c r="F24" t="n">
-        <v>323.0753883668009</v>
+        <v>323.0753883668008</v>
       </c>
       <c r="G24" t="n">
-        <v>186.712288199419</v>
+        <v>186.7122881994189</v>
       </c>
       <c r="H24" t="n">
-        <v>96.21039383728649</v>
+        <v>96.21039383728646</v>
       </c>
       <c r="I24" t="n">
-        <v>77.20310223882443</v>
+        <v>77.20310223882441</v>
       </c>
       <c r="J24" t="n">
         <v>170.8803717294417</v>
       </c>
       <c r="K24" t="n">
-        <v>409.1445707097888</v>
+        <v>409.1445707097889</v>
       </c>
       <c r="L24" t="n">
-        <v>775.842731022454</v>
+        <v>775.8427310224542</v>
       </c>
       <c r="M24" t="n">
         <v>1223.11905624477</v>
@@ -6099,7 +6099,7 @@
         <v>2253.519288103833</v>
       </c>
       <c r="U24" t="n">
-        <v>2025.451441238249</v>
+        <v>2025.451441238248</v>
       </c>
       <c r="V24" t="n">
         <v>1790.299333006506</v>
@@ -6108,7 +6108,7 @@
         <v>1536.061976278304</v>
       </c>
       <c r="X24" t="n">
-        <v>1328.210476072772</v>
+        <v>1328.210476072771</v>
       </c>
       <c r="Y24" t="n">
         <v>1120.450177307818</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>673.5337764942494</v>
+        <v>673.5337764942486</v>
       </c>
       <c r="C25" t="n">
-        <v>565.8505778169424</v>
+        <v>565.8505778169417</v>
       </c>
       <c r="D25" t="n">
-        <v>476.9869226552066</v>
+        <v>476.9869226552059</v>
       </c>
       <c r="E25" t="n">
-        <v>390.3268133234133</v>
+        <v>390.3268133234128</v>
       </c>
       <c r="F25" t="n">
-        <v>304.6898500761028</v>
+        <v>304.6898500761024</v>
       </c>
       <c r="G25" t="n">
-        <v>198.2399977014216</v>
+        <v>198.2399977014213</v>
       </c>
       <c r="H25" t="n">
-        <v>113.2757951698792</v>
+        <v>113.2757951698791</v>
       </c>
       <c r="I25" t="n">
-        <v>77.20310223882443</v>
+        <v>77.20310223882441</v>
       </c>
       <c r="J25" t="n">
-        <v>122.32573468576</v>
+        <v>182.359784549773</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3469674986492</v>
+        <v>417.468328949449</v>
       </c>
       <c r="L25" t="n">
-        <v>762.9408158111582</v>
+        <v>734.0281273979451</v>
       </c>
       <c r="M25" t="n">
-        <v>1138.21922286151</v>
+        <v>1138.219222861507</v>
       </c>
       <c r="N25" t="n">
-        <v>1479.627599567375</v>
+        <v>1479.627599567372</v>
       </c>
       <c r="O25" t="n">
-        <v>1778.957198487788</v>
+        <v>1778.957198487785</v>
       </c>
       <c r="P25" t="n">
-        <v>2011.564698921447</v>
+        <v>2011.564698921445</v>
       </c>
       <c r="Q25" t="n">
-        <v>2089.174995073962</v>
+        <v>2089.17499507396</v>
       </c>
       <c r="R25" t="n">
-        <v>2060.59752208209</v>
+        <v>2060.597522082087</v>
       </c>
       <c r="S25" t="n">
-        <v>1930.164622159516</v>
+        <v>1930.164622159514</v>
       </c>
       <c r="T25" t="n">
-        <v>1769.650990979642</v>
+        <v>1769.65099097964</v>
       </c>
       <c r="U25" t="n">
-        <v>1541.801108355885</v>
+        <v>1541.801108355883</v>
       </c>
       <c r="V25" t="n">
-        <v>1348.369604400598</v>
+        <v>1348.369604400596</v>
       </c>
       <c r="W25" t="n">
-        <v>1120.205418614237</v>
+        <v>1120.205418614236</v>
       </c>
       <c r="X25" t="n">
-        <v>953.4688519668196</v>
+        <v>953.4688519668185</v>
       </c>
       <c r="Y25" t="n">
-        <v>793.9292570738893</v>
+        <v>793.9292570738884</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L26" t="n">
-        <v>1076.411957014866</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M26" t="n">
-        <v>1609.94386168679</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N26" t="n">
-        <v>2156.722678745572</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O26" t="n">
-        <v>3036.687329075027</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3672.421873296413</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643394</v>
@@ -6379,10 +6379,10 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973144</v>
@@ -6391,7 +6391,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6400,34 +6400,34 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6464,49 +6464,49 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>1045.699547878784</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1496.733761127192</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486247</v>
+        <v>2030.265665799117</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.596005545029</v>
+        <v>2577.044482857899</v>
       </c>
       <c r="O29" t="n">
-        <v>3182.560655874483</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P29" t="n">
-        <v>3577.335022231661</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
         <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6540,13 +6540,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,16 +6619,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6649,22 +6649,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467792</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.845421545561</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623798</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N32" t="n">
-        <v>2580.208754682581</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O32" t="n">
-        <v>3083.181225561917</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.983160847721</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6850,22 +6850,22 @@
         <v>229.7905149643391</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6874,7 +6874,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689498</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467775</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
         <v>81.14691689668915</v>
@@ -6938,10 +6938,10 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>1045.699547878784</v>
+        <v>1045.699547878783</v>
       </c>
       <c r="L35" t="n">
-        <v>1496.733761127193</v>
+        <v>1496.733761127192</v>
       </c>
       <c r="M35" t="n">
         <v>2030.265665799117</v>
@@ -6962,25 +6962,25 @@
         <v>4057.345844834457</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468332</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q36" t="n">
         <v>2579.688342997847</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7099,7 +7099,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467785</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>603.8454215455608</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.879634793969</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>1588.411539465894</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2156.722678745572</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O38" t="n">
-        <v>3036.687329075027</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521972</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7248,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
         <v>350.0437186415471</v>
@@ -7327,7 +7327,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7336,19 +7336,19 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
         <v>2313.972430572251</v>
@@ -7360,10 +7360,10 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467795</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>1045.699547878786</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1496.733761127194</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>2030.265665799119</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N41" t="n">
-        <v>2577.044482857901</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O41" t="n">
-        <v>3080.016953737238</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257035</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415466</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302703</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982167</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7603,7 +7603,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
         <v>1262.182746297367</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>771.251070565914</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L44" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486247</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.596005545029</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O44" t="n">
-        <v>2805.568476424366</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094415</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7801,28 +7801,28 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572251</v>
@@ -7840,7 +7840,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>320.4538521740128</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>167.7517591746133</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>102.0353393016317</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9416,10 +9416,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>42.42244164112549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>82.02177684595847</v>
+        <v>82.02177684595688</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>21.74982042514796</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>78.40458911672832</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>108.7354935515743</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>209.1187564935614</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>277.2206841544144</v>
+        <v>277.220684154413</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>21.7498204251475</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>277.2206841544158</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>277.220684154416</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>369.0685238739793</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>368.2650522827603</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>393.21072795221</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>157.5405186579279</v>
+        <v>280.942446597819</v>
       </c>
       <c r="I11" t="n">
-        <v>27.91161198342471</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>314.0869406806336</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>335.5756509279117</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>161.7650192910838</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.166662392436</v>
+        <v>166.1666623924359</v>
       </c>
       <c r="C13" t="n">
-        <v>153.5815033091266</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>134.9501552287109</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>131.75573023343</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>123.0176360190304</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0896971248195</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>82.68710262033684</v>
+        <v>82.68710262033665</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>75.26683488054589</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>212.0443375995357</v>
       </c>
       <c r="Y13" t="n">
-        <v>128.8520330604512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>59.11812517667956</v>
       </c>
       <c r="C14" t="n">
-        <v>351.6075739815063</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>341.0177238311815</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>165.9161105951858</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>280.942446597819</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>95.52244399867439</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>190.2526523501187</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>237.3298541694005</v>
       </c>
       <c r="V14" t="n">
-        <v>314.0869406806336</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>372.5726208665523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>153.5815033091266</v>
+        <v>153.5815033091264</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>23.89347705141741</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>131.75573023343</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>152.3604904695268</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.2270617998133</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.8576805470897</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>212.0443375995359</v>
+        <v>212.0443375995357</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>204.9193355625933</v>
       </c>
     </row>
     <row r="17">
@@ -23789,10 +23789,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>38.81130843424711</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>38.81130843425377</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>38.8113084342541</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>38.81130843424858</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1352934.874208956</v>
+        <v>1352934.874208955</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1352934.874208957</v>
+        <v>1352934.874208956</v>
       </c>
     </row>
     <row r="9">
@@ -26320,10 +26320,10 @@
         <v>102409.5423396298</v>
       </c>
       <c r="E2" t="n">
-        <v>88266.19974788104</v>
+        <v>88266.19974788108</v>
       </c>
       <c r="F2" t="n">
-        <v>88266.19974788101</v>
+        <v>88266.19974788107</v>
       </c>
       <c r="G2" t="n">
         <v>102244.0487141145</v>
@@ -26344,13 +26344,13 @@
         <v>102630.2212330354</v>
       </c>
       <c r="M2" t="n">
+        <v>102630.2212330352</v>
+      </c>
+      <c r="N2" t="n">
         <v>102630.2212330354</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>102630.2212330352</v>
-      </c>
-      <c r="O2" t="n">
-        <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330354</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1134700.308569464</v>
+        <v>1134700.308569465</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>71467.01119388666</v>
+        <v>71467.01119388593</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2659.436701232587</v>
+        <v>2659.436701233131</v>
       </c>
       <c r="J3" t="n">
-        <v>12898.44302927947</v>
+        <v>12898.44302927959</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920728</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29753.24015870736</v>
+        <v>29753.24015870659</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>23579.83155803446</v>
+        <v>23579.8315580346</v>
       </c>
       <c r="F4" t="n">
-        <v>23579.83155803446</v>
+        <v>23579.83155803461</v>
       </c>
       <c r="G4" t="n">
-        <v>80290.36045306742</v>
+        <v>80290.36045306723</v>
       </c>
       <c r="H4" t="n">
-        <v>80290.36045306745</v>
+        <v>80290.36045306723</v>
       </c>
       <c r="I4" t="n">
-        <v>81477.12876955487</v>
+        <v>81477.1287695549</v>
       </c>
       <c r="J4" t="n">
-        <v>78703.96570883354</v>
+        <v>78703.96570883348</v>
       </c>
       <c r="K4" t="n">
-        <v>78703.96570883351</v>
+        <v>78703.96570883345</v>
       </c>
       <c r="L4" t="n">
-        <v>78703.96570883349</v>
+        <v>78703.96570883345</v>
       </c>
       <c r="M4" t="n">
-        <v>78703.96570883351</v>
+        <v>78703.96570883344</v>
       </c>
       <c r="N4" t="n">
-        <v>78703.96570883351</v>
+        <v>78703.96570883346</v>
       </c>
       <c r="O4" t="n">
-        <v>78703.96570883351</v>
+        <v>78703.96570883348</v>
       </c>
       <c r="P4" t="n">
-        <v>78703.96570883354</v>
+        <v>78703.96570883348</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>75455.17016263885</v>
+        <v>75455.1701626389</v>
       </c>
       <c r="F5" t="n">
-        <v>75455.17016263885</v>
+        <v>75455.1701626389</v>
       </c>
       <c r="G5" t="n">
-        <v>86921.42030325596</v>
+        <v>86921.42030325584</v>
       </c>
       <c r="H5" t="n">
-        <v>86921.42030325596</v>
+        <v>86921.42030325584</v>
       </c>
       <c r="I5" t="n">
         <v>87529.4721360745</v>
@@ -26494,7 +26494,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
@@ -26503,7 +26503,7 @@
         <v>89377.9416748061</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-356741.1968264737</v>
+        <v>-356745.6104043418</v>
       </c>
       <c r="C6" t="n">
-        <v>-356741.1968264737</v>
+        <v>-356745.6104043419</v>
       </c>
       <c r="D6" t="n">
-        <v>-356741.1968264737</v>
+        <v>-356745.6104043418</v>
       </c>
       <c r="E6" t="n">
-        <v>-1145469.110542256</v>
+        <v>-1145756.39097196</v>
       </c>
       <c r="F6" t="n">
-        <v>-10768.80197279231</v>
+        <v>-11056.08240249553</v>
       </c>
       <c r="G6" t="n">
-        <v>-136434.7432360955</v>
+        <v>-136442.466686473</v>
       </c>
       <c r="H6" t="n">
-        <v>-64967.73204220888</v>
+        <v>-64975.45549258702</v>
       </c>
       <c r="I6" t="n">
-        <v>-69035.81637382666</v>
+        <v>-69035.81637382723</v>
       </c>
       <c r="J6" t="n">
-        <v>-78350.12917988376</v>
+        <v>-78350.12917988384</v>
       </c>
       <c r="K6" t="n">
         <v>-65451.6861506042</v>
       </c>
       <c r="L6" t="n">
-        <v>-103031.7954454783</v>
+        <v>-103031.7954454782</v>
       </c>
       <c r="M6" t="n">
-        <v>-272640.254442677</v>
+        <v>-272640.2544426773</v>
       </c>
       <c r="N6" t="n">
-        <v>-65451.68615060436</v>
+        <v>-65451.6861506042</v>
       </c>
       <c r="O6" t="n">
-        <v>-95204.92630931159</v>
+        <v>-95204.92630931095</v>
       </c>
       <c r="P6" t="n">
-        <v>-65451.68615060423</v>
+        <v>-65451.68615060422</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="F2" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="G2" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="H2" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="I2" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859257</v>
       </c>
-      <c r="L2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859259</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859256</v>
-      </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>955.0379254718424</v>
+        <v>955.0379254718401</v>
       </c>
       <c r="H4" t="n">
-        <v>955.0379254718424</v>
+        <v>955.0379254718401</v>
       </c>
       <c r="I4" t="n">
-        <v>965.0387779853054</v>
+        <v>965.0387779853052</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="O4" t="n">
         <v>1014.336461208614</v>
       </c>
-      <c r="O4" t="n">
-        <v>1014.336461208615</v>
-      </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>123.63647006955</v>
+        <v>123.6364700695474</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>10.00085251346297</v>
+        <v>10.00085251346502</v>
       </c>
       <c r="J4" t="n">
-        <v>49.29768322330904</v>
+        <v>49.29768322330949</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695503</v>
+        <v>123.6364700695472</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.66531778950127</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.63647006955</v>
+        <v>123.6364700695474</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="C11" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="D11" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="E11" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="F11" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="G11" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="H11" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="I11" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="T11" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="U11" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="V11" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="W11" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="X11" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="C13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="D13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="E13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="F13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="G13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="H13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="I13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="J13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="K13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="L13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="M13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="N13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="O13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="P13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="R13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="S13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="T13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="U13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="V13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="W13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="X13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="C14" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="D14" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="E14" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="F14" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="G14" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="H14" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="I14" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="T14" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="U14" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="V14" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="W14" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="X14" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="C16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="D16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="E16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="F16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="G16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="H16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="I16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="J16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="K16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="L16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="M16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="N16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="O16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="P16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="R16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="S16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="T16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="U16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="V16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="W16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="X16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.66531778950128</v>
+        <v>13.66531778950144</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="C17" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="D17" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="E17" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="F17" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="G17" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="H17" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="T17" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="U17" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="V17" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="W17" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="X17" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="Y17" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
     </row>
     <row r="18">
@@ -28719,40 +28719,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="C19" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="D19" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="E19" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="F19" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="G19" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="H19" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="I19" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="J19" t="n">
-        <v>31.43571863717405</v>
+        <v>31.43571863717146</v>
       </c>
       <c r="K19" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="M19" t="n">
-        <v>60.64045440809385</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="S19" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="T19" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="U19" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="V19" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="W19" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="X19" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="C20" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="D20" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="E20" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="F20" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="G20" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="H20" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="T20" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="U20" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="V20" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="W20" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="X20" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="Y20" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
     </row>
     <row r="21">
@@ -28956,46 +28956,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="C22" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="D22" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="E22" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="F22" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="G22" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="H22" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="I22" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="J22" t="n">
-        <v>31.43571863717467</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>60.64045440809385</v>
+        <v>31.4357186371717</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="O22" t="n">
-        <v>60.64045440809385</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="S22" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="T22" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="U22" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="V22" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="W22" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="X22" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="C23" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="D23" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="E23" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="F23" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="G23" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="H23" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="T23" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="U23" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="V23" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="W23" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="X23" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="Y23" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
     </row>
     <row r="24">
@@ -29193,40 +29193,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="C25" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="D25" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="E25" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="F25" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="G25" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="H25" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="I25" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="K25" t="n">
-        <v>60.64045440809385</v>
+        <v>31.43571863717136</v>
       </c>
       <c r="L25" t="n">
-        <v>60.64045440809385</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>31.43571863717449</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="S25" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="T25" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="U25" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="V25" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="W25" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="X25" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.64045440809385</v>
+        <v>60.64045440809397</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185921</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859199</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185921</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.24373440256747</v>
+        <v>59.24373440256766</v>
       </c>
       <c r="K13" t="n">
-        <v>219.7129773338208</v>
+        <v>219.712977333821</v>
       </c>
       <c r="L13" t="n">
-        <v>333.4226899596994</v>
+        <v>333.4226899596995</v>
       </c>
       <c r="M13" t="n">
-        <v>361.2986971829851</v>
+        <v>361.2986971829853</v>
       </c>
       <c r="N13" t="n">
-        <v>358.5222639570413</v>
+        <v>358.5222639570415</v>
       </c>
       <c r="O13" t="n">
-        <v>316.018448012141</v>
+        <v>316.0184480121412</v>
       </c>
       <c r="P13" t="n">
-        <v>248.6223889346116</v>
+        <v>248.6223889346119</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.0595563273949</v>
+        <v>92.0595563273951</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.24373440256747</v>
+        <v>59.24373440256766</v>
       </c>
       <c r="K16" t="n">
-        <v>219.7129773338208</v>
+        <v>219.712977333821</v>
       </c>
       <c r="L16" t="n">
-        <v>333.4226899596994</v>
+        <v>333.4226899596995</v>
       </c>
       <c r="M16" t="n">
-        <v>361.2986971829851</v>
+        <v>361.2986971829853</v>
       </c>
       <c r="N16" t="n">
-        <v>358.5222639570413</v>
+        <v>358.5222639570415</v>
       </c>
       <c r="O16" t="n">
-        <v>316.018448012141</v>
+        <v>316.0184480121412</v>
       </c>
       <c r="P16" t="n">
-        <v>248.6223889346116</v>
+        <v>248.6223889346119</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.0595563273949</v>
+        <v>92.0595563273951</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>657.6451387294132</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
@@ -35896,10 +35896,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>675.8047600628324</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>77.01413525024027</v>
+        <v>77.01413525023769</v>
       </c>
       <c r="K19" t="n">
-        <v>266.6881139524134</v>
+        <v>266.6881139524136</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>380.3978265782921</v>
       </c>
       <c r="M19" t="n">
-        <v>408.2738338015777</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>292.8223402703442</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>441.1844278604974</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>77.01413525024087</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>266.6881139524136</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>408.2738338015776</v>
+        <v>379.0690980306555</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>405.4974005756341</v>
       </c>
       <c r="O22" t="n">
-        <v>362.9935846307336</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>480.7837630653301</v>
+        <v>480.7837630653287</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>106.2188710211602</v>
       </c>
       <c r="K25" t="n">
-        <v>266.6881139524133</v>
+        <v>237.4833781814909</v>
       </c>
       <c r="L25" t="n">
-        <v>380.3978265782919</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>379.0690980306583</v>
+        <v>408.2738338015778</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>477.3399348174799</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>329.1988939204478</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597776</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,7 +36759,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36832,25 +36832,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>614.411970709814</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>359.5297983552937</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36996,7 +36996,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>607.8807427129331</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>614.4119707098148</v>
+        <v>614.4119707098135</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37482,7 +37482,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>574.0516558380588</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,13 +37710,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.832082786132</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>614.4119707098162</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,25 +38017,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>675.9826703737876</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
